--- a/Przypadki testowe - sekcja 4.xlsx
+++ b/Przypadki testowe - sekcja 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gosia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Kurs tester manualny\Pliki z testowaniem\Przypadki testowe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ACB30B-CE16-4C00-B60B-3E502E288C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ADE900-04D9-4957-B7AA-A01F14EC63B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0A40DD6-0D00-4D86-A69D-BA2FD4108990}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0A40DD6-0D00-4D86-A69D-BA2FD4108990}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="158">
   <si>
     <t>SCENARIUSZ TESTOWY</t>
   </si>
@@ -276,20 +276,147 @@
     <t>Użytkownik nie powinien zalogować się wpisując błedne dane</t>
   </si>
   <si>
-    <t>Pod napisem Logowanie wpisać niepoprawne dane logowania</t>
-  </si>
-  <si>
-    <t>Pojawienie się komunikatu o wprowadzeniu prawidłowych danych</t>
-  </si>
-  <si>
     <t>Dodawanie produktu do koszyka w ilości większej niż 1 sztuka</t>
   </si>
   <si>
     <t xml:space="preserve">Użytkownik powienien mieć możliwość dodania do koszyka większej ilości tej samej rzeczy </t>
   </si>
   <si>
+    <t>Strona wyświetliła się poprawnie</t>
+  </si>
+  <si>
+    <t>W polu Szukaj wpisać frazę np. sukienka i kliknąć wyszukaj</t>
+  </si>
+  <si>
+    <t>Wybrać randomowy produkt</t>
+  </si>
+  <si>
+    <t>Wybranie rozmiaru, kliknąć dodaj do koszyka</t>
+  </si>
+  <si>
+    <t>Krok 5</t>
+  </si>
+  <si>
+    <t>Klikamy ponownie Dodaj do koszyka</t>
+  </si>
+  <si>
+    <t>Strona powinna przenieść nas do wybranego produktu</t>
+  </si>
+  <si>
+    <t>Otrzymujemy ponownie komunikat o dodaniu produktu, zwiększa się ilość dodanych rzeczy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krok 6 </t>
+  </si>
+  <si>
+    <t>Przechodzimy do koszyka</t>
+  </si>
+  <si>
+    <t>Strona przenosi nas do koszyka, gdzie widnieje ilość dodanych rzeczy</t>
+  </si>
+  <si>
+    <t>Kupowanie przez niezalogowanego użytkownika</t>
+  </si>
+  <si>
+    <t>Użytkownik ma możliwość zakupu jeśli nie jest zalogowany</t>
+  </si>
+  <si>
+    <t>Strona wyświetlona poprawnie</t>
+  </si>
+  <si>
+    <t>Wpisanie w wyszukiwarke na stronie Zary np. sukienka</t>
+  </si>
+  <si>
+    <t>Kliknięcie w randomową rzecz</t>
+  </si>
+  <si>
+    <t>Upewnij się że jesteś wylogowany</t>
+  </si>
+  <si>
+    <t>Kliknąć przycisk Dalej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejestracja z niewłaściwie powtórzonym hasłem </t>
+  </si>
+  <si>
+    <t>Użytkownik przy niepoprawnie powtórzonym haśle nie ma możliwości zarejestrowania się na stronie</t>
+  </si>
+  <si>
+    <t>Inne pola uzupełnij poprawnie</t>
+  </si>
+  <si>
+    <t>W polu Powtórz hasło wpisz inne niż wpisałeś w polu Hasło</t>
+  </si>
+  <si>
+    <t>Kliknij zarejestruj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na stronie widnieje komunikat, że hasła różnią się </t>
+  </si>
+  <si>
+    <t>Rejestracja przy niepoprawnym formacie w polu Telefon</t>
+  </si>
+  <si>
+    <t>Użytkownik przy wpisanbiu niepoprawnego formatu w polu Telefon, nie ma możliwości rejestracji</t>
+  </si>
+  <si>
+    <t>W polu Telefon wpisz niepoprawny format tj. (^62727727272bab)</t>
+  </si>
+  <si>
+    <t>Strona wyświetli komunikat o niepoprawnym formacie w polu Telefon</t>
+  </si>
+  <si>
+    <t>Strona wyświetliła komunikat o niepoprawnym formacie w polu Telefon</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Wprowadzenie w przeglądarce adresu: </t>
+      <t xml:space="preserve">Pojawianie się komunikatów- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPCJONALNIE, ponieważ wiemy, że takowe się pojawiają</t>
+    </r>
+  </si>
+  <si>
+    <t>Przy niewypełnieniu obowiązkowych pól otrzymujemy komunikat o obowiązku wypełnienia pól</t>
+  </si>
+  <si>
+    <t>Nie wypełniaj żadnych pól w formularzu rejestracji</t>
+  </si>
+  <si>
+    <t>Na stronie powienien pojawić się komunikat o obowiązku wypełnienia pól</t>
+  </si>
+  <si>
+    <t>Na stronie  pojawia się komunikat o obowiązku wypełnienia pól</t>
+  </si>
+  <si>
+    <t>Strona powinna przeeniść nas do wybrania opcji zakupu "Jako Gość"</t>
+  </si>
+  <si>
+    <t>Strona przenosi nas do wybrania opcji zakupu "Jako Gość"</t>
+  </si>
+  <si>
+    <t>Kupowanie przez zalogowanego użytkownika</t>
+  </si>
+  <si>
+    <t>Użytkownik ma możliwość zakupu jeśli jest zalogowany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krok 1 </t>
+  </si>
+  <si>
+    <t>Upewnij się że jesteś zalogowany</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wprowadzenie w przeglądarce adresu: https://www.zara.com/pl/ </t>
     </r>
     <r>
       <rPr>
@@ -304,77 +431,131 @@
     </r>
   </si>
   <si>
-    <t>Strona wyświetliła się poprawnie</t>
-  </si>
-  <si>
-    <t>W polu Szukaj wpisać frazę np. sukienka i kliknąć wyszukaj</t>
-  </si>
-  <si>
-    <t>Wybrać randomowy produkt</t>
-  </si>
-  <si>
-    <t>Wybranie rozmiaru, kliknąć dodaj do koszyka</t>
-  </si>
-  <si>
-    <t>Krok 5</t>
-  </si>
-  <si>
-    <t>W ikonie Koszyk w prawym górnym rogu automatycznie widnieje liczba dodanych produktów</t>
-  </si>
-  <si>
-    <t>Klikamy ponownie Dodaj do koszyka</t>
-  </si>
-  <si>
-    <t>Strona powinna przenieść nas do wybranego produktu</t>
-  </si>
-  <si>
-    <t>Otrzymujemy ponownie komunikat o dodaniu produktu, zwiększa się ilość dodanych rzeczy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krok 6 </t>
-  </si>
-  <si>
-    <t>Przechodzimy do koszyka</t>
-  </si>
-  <si>
-    <t>Strona przenosi nas do koszyka, gdzie widnieje ilość dodanych rzeczy</t>
-  </si>
-  <si>
-    <t>Kupowanie przez niezalogowanego użytkownika</t>
-  </si>
-  <si>
-    <t>Użytkownik ma możliwość zakupu jeśli nie jest zalogowany</t>
-  </si>
-  <si>
-    <t>Strona wyświetlona poprawnie</t>
-  </si>
-  <si>
-    <t>Wpisanie w wyszukiwarke na stronie Zary np. sukienka</t>
-  </si>
-  <si>
-    <t>Kliknięcie w randomową rzecz</t>
-  </si>
-  <si>
-    <t>Wybranie romiaru i kliknąć Dodaj do koszyka</t>
-  </si>
-  <si>
-    <t>Przejście do koszyka</t>
-  </si>
-  <si>
-    <t>Upewnij się że jesteś wylogowany</t>
-  </si>
-  <si>
-    <t>Kliknąć przycisk Dalej</t>
-  </si>
-  <si>
-    <t>Strona przeniesie nas do wybrania opcji zakupu "Jako Gość"</t>
+    <t>Zaloguj się poprawnie do swojego konta</t>
+  </si>
+  <si>
+    <t>W wyszukiwarce wyszukaj produkt i dodaj do koszyka</t>
+  </si>
+  <si>
+    <t>Wejdź do koszyka i kliknij Dalej</t>
+  </si>
+  <si>
+    <t>Wybierz sposób dostawy</t>
+  </si>
+  <si>
+    <t>Wybierz sposób płatności</t>
+  </si>
+  <si>
+    <t>Uzupełnij pola do wysyłki</t>
+  </si>
+  <si>
+    <t>Krok 7</t>
+  </si>
+  <si>
+    <t>Kliknij autoryzuj płatność</t>
+  </si>
+  <si>
+    <t>Powinieneś zostać przeniesiony do banku, zapłacić za zamówienie i zostać przeniesiony na strone sklepu. Na maila otrzymasz potwierdzenie zamówienia</t>
+  </si>
+  <si>
+    <t>Nastąpiło przeniesienie do banku, zapłacenie za zamówienie i przeniesienie na strone sklepu. Otrzymano na maila potwierdzenie zamówienia.</t>
+  </si>
+  <si>
+    <t>Wprowadzenie w przeglądarce adresu: https://www.zara.com/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powinniśmy zostać przekierowani na strone </t>
+  </si>
+  <si>
+    <t>Użytkownik powinien zostać przeniesiony na strone i swoje konto/ zalogowany</t>
+  </si>
+  <si>
+    <t>Pola Email, Hasło powinny zostać  wypełnione poprawnie</t>
+  </si>
+  <si>
+    <t>Powinniśmy zostać przekierowani na stronę</t>
+  </si>
+  <si>
+    <t>Strona wyświetliła się</t>
+  </si>
+  <si>
+    <t>Użytkownik nie powinien zostać zalogowany, proszony jest o wypełnienie pól</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powinno nastąpić przekierowanie na stronę </t>
+  </si>
+  <si>
+    <t>Pod napisem Logowanie wpisać niepoprawne dane logowania i kliknąć Zaloguj</t>
+  </si>
+  <si>
+    <t>Użytkownik powinien nie zostać zalogowany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Użytkownik nie zostaje zalogowany </t>
+  </si>
+  <si>
+    <t>Powinno  nastąpić przekierowanie na stronę z listą sukienek</t>
+  </si>
+  <si>
+    <t>Produkty dodane do koszyka widać automatycznie</t>
+  </si>
+  <si>
+    <t>W ikonie Koszyk w prawym górnym rogu powinna widnieć automatycznie  liczba dodanych produktów</t>
+  </si>
+  <si>
+    <t>Powinniśmy otrzymać komunikat o ponownym dodaniu rzeczy do koszyka w większej ilości</t>
+  </si>
+  <si>
+    <t>Strona powinna przenieść nas do koszyka z większą ilością tej samej rzeczy</t>
+  </si>
+  <si>
+    <t>Powinno nastąpić przekierowanie na stronę z listą sukienek</t>
+  </si>
+  <si>
+    <t>Powinno nastąpić przekierowanie na stronę z konkretnym produktem</t>
+  </si>
+  <si>
+    <t>Wybranie romiaru i kliknięcie Dodaj do koszyka</t>
+  </si>
+  <si>
+    <t>Obok produktu widzimy komunikat o dodaniu rzeczy do koszyka</t>
+  </si>
+  <si>
+    <t>Obok produktu powinien widnieć komunikat o dodaniu rzeczy do koszyka</t>
+  </si>
+  <si>
+    <t>Kliknięcie przycisku Koszyk w prawym górnym rogu</t>
+  </si>
+  <si>
+    <t>Powinno nastąpić przekierowanie do koszyka</t>
+  </si>
+  <si>
+    <t>Przekierowanie na stronę</t>
+  </si>
+  <si>
+    <t>Przekierowanie na stronę jako zalogowany użytkownik</t>
+  </si>
+  <si>
+    <t>Komunikat o dodaniu produktu widnieje</t>
+  </si>
+  <si>
+    <t>Przekierowanie na strone możliwości kupna produktu</t>
+  </si>
+  <si>
+    <t>Pola poprawnie uzupełnione</t>
+  </si>
+  <si>
+    <t>Pole zostało uzupełnione</t>
+  </si>
+  <si>
+    <t>Sposób płatności został wybrany</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,8 +589,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +659,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -498,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -531,9 +744,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -550,9 +760,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -575,17 +782,56 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -902,32 +1148,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D861AA7C-C387-46F9-BE37-C4FCAFB036BA}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="B69" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -944,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -961,7 +1207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -978,7 +1224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -995,12 +1241,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1032,763 +1278,1250 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="31">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="14" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15">
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="35">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C14" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F15" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G15" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="17" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F16" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="17" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F17" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G17" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H17" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="17" t="s">
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G18" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H18" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I18" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18">
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
+      <c r="B19" s="38">
         <v>3</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C19" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D19" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E19" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20" t="s">
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+    </row>
+    <row r="20" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F20" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G20" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="20" t="s">
+      <c r="H20" s="39"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F21" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G21" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="20" t="s">
+      <c r="H21" s="39"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G22" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="20" t="s">
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F23" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G23" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18" t="s">
+      <c r="H23" s="38"/>
+      <c r="I23" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="J23" s="38"/>
+    </row>
+    <row r="24" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="11">
+        <v>4</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="17"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="17"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="17"/>
+      <c r="B30" s="14">
+        <v>5</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="17"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17">
+        <v>6</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="20">
         <v>2</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B40" s="20">
         <v>1</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C40" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D40" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E40" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="24" t="s">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F41" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G41" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="24" t="s">
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F42" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G42" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="24" t="s">
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F43" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G43" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25">
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23">
         <v>2</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C44" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D44" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E44" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-    </row>
-    <row r="30" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="27" t="s">
+      <c r="F44" s="24"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F45" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-    </row>
-    <row r="31" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="27" t="s">
+      <c r="G45" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+    </row>
+    <row r="46" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F46" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G46" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+    </row>
+    <row r="47" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26">
+        <v>3</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+    </row>
+    <row r="48" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A50" s="29">
+        <v>3</v>
+      </c>
+      <c r="B50" s="46">
+        <v>1</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+    </row>
+    <row r="51" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="29"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+    </row>
+    <row r="52" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A52" s="29"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="H52" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+    </row>
+    <row r="53" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="29"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+    </row>
+    <row r="54" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A54" s="29"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H54" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+    </row>
+    <row r="55" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A55" s="29"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+    </row>
+    <row r="56" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="29"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+    </row>
+    <row r="57" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="30"/>
+      <c r="B57" s="49">
+        <v>2</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+    </row>
+    <row r="58" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="30"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+    </row>
+    <row r="59" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A59" s="30"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+    </row>
+    <row r="60" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A60" s="30"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+    </row>
+    <row r="61" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A61" s="30"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="H61" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+    </row>
+    <row r="62" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="30"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+    </row>
+    <row r="63" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A63" s="30"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G63" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="I63" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-    </row>
-    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28">
+      <c r="J63" s="49"/>
+    </row>
+    <row r="64" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B64" s="42">
         <v>3</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="30" t="s">
+      <c r="C64" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-    </row>
-    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-    </row>
-    <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="30" t="s">
+      <c r="F64" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+    </row>
+    <row r="65" spans="2:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G65" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+    </row>
+    <row r="66" spans="2:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-    </row>
-    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
-        <v>3</v>
-      </c>
-      <c r="B35" s="31">
-        <v>1</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-    </row>
-    <row r="36" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="32" t="s">
+      <c r="F66" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G66" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+    </row>
+    <row r="67" spans="2:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="G67" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+    </row>
+    <row r="68" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+    </row>
+    <row r="69" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="32" t="s">
+      <c r="F69" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" s="42"/>
+      <c r="H69" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+    </row>
+    <row r="70" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70" s="42"/>
+      <c r="H70" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+    </row>
+    <row r="71" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-    </row>
-    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34">
-        <v>2</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-    </row>
-    <row r="43" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-    </row>
-    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-    </row>
-    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-    </row>
-    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-    </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-    </row>
-    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
+      <c r="F71" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="G71" s="42"/>
+      <c r="H71" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+    </row>
+    <row r="72" spans="2:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G72" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="H72" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
